--- a/textos_analisis.xlsx
+++ b/textos_analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AAE9AB-4E86-4DCC-A0C5-F391BD5EF72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC2F5F0-8C30-4552-901F-20F8E4F3CFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Facultad</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Al ver porcentaje de votos válidos por lista, se observa un mejor resultado del frente Sociales en Movimiento con su segundo incremento consecutivo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Este buen resultado de la lista Sociales en Movimiento permite obtener 3 bancas en el Consejo Directivo en el 2024, lugar que venía conquistando la alianza UES-Alternativa Académica en las dos elecciones anteriores. </t>
-  </si>
-  <si>
     <t>FFyB</t>
   </si>
   <si>
@@ -81,6 +78,72 @@
   </si>
   <si>
     <t>Económicas</t>
+  </si>
+  <si>
+    <t>Exactas</t>
+  </si>
+  <si>
+    <t>Ingeniería</t>
+  </si>
+  <si>
+    <t>FADU</t>
+  </si>
+  <si>
+    <t>Agronomía</t>
+  </si>
+  <si>
+    <t>Veterinaria</t>
+  </si>
+  <si>
+    <t>Medicina</t>
+  </si>
+  <si>
+    <t>Dentro del claustro estudiantil se ve una ligera caída en la cantidad de votos totales para el año 2024 en la Facultad de Filosofía y Letras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El frente El Colectivo + Aquelarre obtiene el mejor resultado en porcentaje de votos válidos, seguido por La Izquierda al Frente. Se observa un importante crecimiento de FEI para el año 2024. </t>
+  </si>
+  <si>
+    <t>En el Consejo Directivo se repite el resultado de las últimas dos elecciones: tres bancas para El Colectivo (+ Aquelarre en 2024) y una banca para La Izquierda al Frente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este buen resultado de la lista Sociales en Movimiento permite obtener tres bancas en el Consejo Directivo en el 2024, lugar que venía conquistando la alianza UES-Alternativa Académica en las dos elecciones anteriores. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentro del claustro estudiantil se ve una ligera caída en la cantidad de votos totales para el año 2024 en la Facultad de Farmacia y Bioquímica. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El frente "Estudiantes por FFyB" (alianza entre Sinapsis y Nuevo Espacio) logra pasar al frente en estas elecciones y conquistar la mayor cantidad de votos en las elecciones a Consejo Directivo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El frente "Estudiantes por FFyB" conquista así tres bancas en el Consejo. La lista Antídoto conquista una sola banca para el año 2024-2026 a diferencia de las últimas dos elecciones donde había obtenido la mayoría. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentro del claustro estudiantil se ve una ligera caída en la cantidad de votos totales para el año 2024 en la Facultad de Derecho pero un aumento respecto a 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El "Frente Reformista" obtiene la victoria en el claustro estudiantil con el 59% de los votos válidos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este resultado les permite sostener la mayoría en el Consejo Directivo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Económicas persiste la caída de votos totales para el año 2024, caída que ya se verificaba en las elecciones del 2022. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La lista "Nuevo Espacio" sostiene el primer lugar con el 71% de los votos válidos, resultado similar al de las últimas dos elecciones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este resultado les permite sostener la mayoría absoluta en el Consejo Directivo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Ciencias Exactas se observa un crecimiento en la cantidad de votos totales. </t>
+  </si>
+  <si>
+    <t>La mayor cantidad de votos válidos se la lleva la lista "Identidad", seguido por "FEM", ambos cayendo en porcentaje de votos respecto al año 2022. La novedad es "Espacio Exactas" que obtiene el 20% de votos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Consejo Directivo mantiene su composición con tres bancas para Identidad y una banca para FEM. </t>
   </si>
 </sst>
 </file>
@@ -398,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -445,54 +508,138 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/textos_analisis.xlsx
+++ b/textos_analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC2F5F0-8C30-4552-901F-20F8E4F3CFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0E19F-1EFD-4F62-A727-56EFFC1D7A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Facultad</t>
   </si>
@@ -59,42 +59,21 @@
     <t>Análisis de cons...</t>
   </si>
   <si>
-    <t>FSOC</t>
-  </si>
-  <si>
-    <t>FILO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dentro del claustro estudiantil, lo primero que se evidencia en la Facultad de Ciencias Sociales es que se sostiene la caída de votos totales que se observó en las últimas elecciones obligatorias. </t>
   </si>
   <si>
     <t>Al ver porcentaje de votos válidos por lista, se observa un mejor resultado del frente Sociales en Movimiento con su segundo incremento consecutivo.</t>
   </si>
   <si>
-    <t>FFyB</t>
-  </si>
-  <si>
     <t>Derecho</t>
   </si>
   <si>
-    <t>Económicas</t>
-  </si>
-  <si>
-    <t>Exactas</t>
-  </si>
-  <si>
     <t>Ingeniería</t>
   </si>
   <si>
-    <t>FADU</t>
-  </si>
-  <si>
     <t>Agronomía</t>
   </si>
   <si>
-    <t>Veterinaria</t>
-  </si>
-  <si>
     <t>Medicina</t>
   </si>
   <si>
@@ -144,16 +123,50 @@
   </si>
   <si>
     <t xml:space="preserve">El Consejo Directivo mantiene su composición con tres bancas para Identidad y una banca para FEM. </t>
+  </si>
+  <si>
+    <t>Odontología</t>
+  </si>
+  <si>
+    <t>Cs. Económicas</t>
+  </si>
+  <si>
+    <t>Cs. Exactas y Naturales</t>
+  </si>
+  <si>
+    <t>Arquitectura, Diseño y Urbanismo</t>
+  </si>
+  <si>
+    <t>Farmacia y Bioquímica</t>
+  </si>
+  <si>
+    <t>Filosofía y Letras</t>
+  </si>
+  <si>
+    <t>Cs. Sociales</t>
+  </si>
+  <si>
+    <t>Psicología</t>
+  </si>
+  <si>
+    <t>Cs. Veterinarias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,12 +188,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,185 +499,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/textos_analisis.xlsx
+++ b/textos_analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0E19F-1EFD-4F62-A727-56EFFC1D7A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29C75AE-C11B-449E-BA14-ABC4CAE4F204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Facultad</t>
   </si>
@@ -50,15 +50,6 @@
     <t>Texto Consejeros</t>
   </si>
   <si>
-    <t>Análisis de p...</t>
-  </si>
-  <si>
-    <t>Análisis de per...</t>
-  </si>
-  <si>
-    <t>Análisis de cons...</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dentro del claustro estudiantil, lo primero que se evidencia en la Facultad de Ciencias Sociales es que se sostiene la caída de votos totales que se observó en las últimas elecciones obligatorias. </t>
   </si>
   <si>
@@ -150,6 +141,66 @@
   </si>
   <si>
     <t>Cs. Veterinarias</t>
+  </si>
+  <si>
+    <t>En la Facultad de Agronomía se ve una caída sostenida entre 2019 y 2024 de votos totales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el 2024 se mantienen los resultados obtenidos en las elecciones anteriores: la lista "Línea de agronomía independiente" consigue el primer lugar con 45,6% de los votos seguida de cerca por "Fana ATP FAUBA" con un 37,7%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Consejo Directivo mantiene su composición con tres bancas para la lista "Línea de agronomía independiente" y una banca para "Fana ATP FAUBA". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Ingeniería votaron en 2024 una cantidad similar de estudiantes que en el año 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Consejo Directivo mantiene su composición con las cuatro bancas para la lista "MLI". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La lista "Movimiento Linealmente Independiente" consigue el primer lugar pero con un resultado peor: 35% de los votos comparado con el 61,7% obtenido en 2022. Se destaca el aumento de los votos obtenidos por la lista "El Gradiente" y la aparición de una nueva lista: "Espacio Estudiantil". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 2024 se invierte la tendencia marcada por las dos elecciones anteriores: triunfa la lista "Unidad FADU" con el 53,5% de los votos frente al 33,7% de la lista "Somos FADU". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Consejo Directivo invierte su composición: "Unidad FADU" pasa a ocupar 3 bancas y "Somos FADU" ocupa la banca restante. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Ciencias Veterinarias la cantidad total de votantes se mantiene estable para el año 2024. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La lista eVet-UJS consigue una ajustada victoria con el 37,8% de los votos frente a los 36,1% de la lista "AFV". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el Consejo Directivo la lista "eVet-UJS" sostiene sus tres bancas mientras que la banca restante pasa a manos de la lista "AFV", anteriormente ocupada por "La Tropilla". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Arquitectura, Diseño y Urbanismo se ve un aumento importante en la cantidad de votantes para el año 2024. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Medicina votaron en 2024 una cantidad similar de estudiantes que en las elecciones inmediatamente anteriores. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La lista "Nuevo Espacio" sostiene el primer lugar con el 61,5% de los votos, muy lejos de la lista "El Torrente" (23,2%). Sin embargo, se ve una caída respecto del año anterior, donde habían obtenido el 74,7% de los votos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el Consejo Directivo la lista "Nuevo Espacio" pierde la mayoría absoluta y cede una de sus bancas a la lista "El Torrente". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Odontología la lista "AFO" sostiene una abrumadora mayoría llegando al 99% de los votos válidos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el Consejo Directivo la lista "AFO" sostiene la mayoría absoluta en el claustro de estudiantes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Psicología la cantidad total de votantes en el año 2024 es similar a la del año 2019. </t>
+  </si>
+  <si>
+    <t>La lista "EDI" sostiene el primer lugar con un 51,7% de los votos válidos, seguido por la lista "El impulso" con un 31,5% de votos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el Consejo Directivo se sostiene la proporción: tres bancas para la lista "EDI" y una banca para "El impulso". </t>
   </si>
 </sst>
 </file>
@@ -207,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -217,6 +268,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -501,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,187 +581,186 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/textos_analisis.xlsx
+++ b/textos_analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29C75AE-C11B-449E-BA14-ABC4CAE4F204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D6C63-CD50-4DB6-BECF-25C8E0DA84E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Texto Consejeros</t>
   </si>
   <si>
-    <t xml:space="preserve">Dentro del claustro estudiantil, lo primero que se evidencia en la Facultad de Ciencias Sociales es que se sostiene la caída de votos totales que se observó en las últimas elecciones obligatorias. </t>
-  </si>
-  <si>
     <t>Al ver porcentaje de votos válidos por lista, se observa un mejor resultado del frente Sociales en Movimiento con su segundo incremento consecutivo.</t>
   </si>
   <si>
@@ -71,15 +68,6 @@
     <t>Dentro del claustro estudiantil se ve una ligera caída en la cantidad de votos totales para el año 2024 en la Facultad de Filosofía y Letras.</t>
   </si>
   <si>
-    <t xml:space="preserve">El frente El Colectivo + Aquelarre obtiene el mejor resultado en porcentaje de votos válidos, seguido por La Izquierda al Frente. Se observa un importante crecimiento de FEI para el año 2024. </t>
-  </si>
-  <si>
-    <t>En el Consejo Directivo se repite el resultado de las últimas dos elecciones: tres bancas para El Colectivo (+ Aquelarre en 2024) y una banca para La Izquierda al Frente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este buen resultado de la lista Sociales en Movimiento permite obtener tres bancas en el Consejo Directivo en el 2024, lugar que venía conquistando la alianza UES-Alternativa Académica en las dos elecciones anteriores. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dentro del claustro estudiantil se ve una ligera caída en la cantidad de votos totales para el año 2024 en la Facultad de Farmacia y Bioquímica. </t>
   </si>
   <si>
@@ -89,33 +77,12 @@
     <t xml:space="preserve">El frente "Estudiantes por FFyB" conquista así tres bancas en el Consejo. La lista Antídoto conquista una sola banca para el año 2024-2026 a diferencia de las últimas dos elecciones donde había obtenido la mayoría. </t>
   </si>
   <si>
-    <t xml:space="preserve">Dentro del claustro estudiantil se ve una ligera caída en la cantidad de votos totales para el año 2024 en la Facultad de Derecho pero un aumento respecto a 2019. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El "Frente Reformista" obtiene la victoria en el claustro estudiantil con el 59% de los votos válidos. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Este resultado les permite sostener la mayoría en el Consejo Directivo. </t>
   </si>
   <si>
     <t xml:space="preserve">En la Facultad de Económicas persiste la caída de votos totales para el año 2024, caída que ya se verificaba en las elecciones del 2022. </t>
   </si>
   <si>
-    <t xml:space="preserve">La lista "Nuevo Espacio" sostiene el primer lugar con el 71% de los votos válidos, resultado similar al de las últimas dos elecciones. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este resultado les permite sostener la mayoría absoluta en el Consejo Directivo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En la Facultad de Ciencias Exactas se observa un crecimiento en la cantidad de votos totales. </t>
-  </si>
-  <si>
-    <t>La mayor cantidad de votos válidos se la lleva la lista "Identidad", seguido por "FEM", ambos cayendo en porcentaje de votos respecto al año 2022. La novedad es "Espacio Exactas" que obtiene el 20% de votos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Consejo Directivo mantiene su composición con tres bancas para Identidad y una banca para FEM. </t>
-  </si>
-  <si>
     <t>Odontología</t>
   </si>
   <si>
@@ -146,36 +113,15 @@
     <t>En la Facultad de Agronomía se ve una caída sostenida entre 2019 y 2024 de votos totales.</t>
   </si>
   <si>
-    <t xml:space="preserve">En el 2024 se mantienen los resultados obtenidos en las elecciones anteriores: la lista "Línea de agronomía independiente" consigue el primer lugar con 45,6% de los votos seguida de cerca por "Fana ATP FAUBA" con un 37,7%. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Consejo Directivo mantiene su composición con tres bancas para la lista "Línea de agronomía independiente" y una banca para "Fana ATP FAUBA". </t>
-  </si>
-  <si>
     <t xml:space="preserve">En la Facultad de Ingeniería votaron en 2024 una cantidad similar de estudiantes que en el año 2019. </t>
   </si>
   <si>
     <t xml:space="preserve">El Consejo Directivo mantiene su composición con las cuatro bancas para la lista "MLI". </t>
   </si>
   <si>
-    <t xml:space="preserve">La lista "Movimiento Linealmente Independiente" consigue el primer lugar pero con un resultado peor: 35% de los votos comparado con el 61,7% obtenido en 2022. Se destaca el aumento de los votos obtenidos por la lista "El Gradiente" y la aparición de una nueva lista: "Espacio Estudiantil". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En 2024 se invierte la tendencia marcada por las dos elecciones anteriores: triunfa la lista "Unidad FADU" con el 53,5% de los votos frente al 33,7% de la lista "Somos FADU". </t>
-  </si>
-  <si>
     <t xml:space="preserve">El Consejo Directivo invierte su composición: "Unidad FADU" pasa a ocupar 3 bancas y "Somos FADU" ocupa la banca restante. </t>
   </si>
   <si>
-    <t xml:space="preserve">En la Facultad de Ciencias Veterinarias la cantidad total de votantes se mantiene estable para el año 2024. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La lista eVet-UJS consigue una ajustada victoria con el 37,8% de los votos frente a los 36,1% de la lista "AFV". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el Consejo Directivo la lista "eVet-UJS" sostiene sus tres bancas mientras que la banca restante pasa a manos de la lista "AFV", anteriormente ocupada por "La Tropilla". </t>
-  </si>
-  <si>
     <t xml:space="preserve">En la Facultad de Arquitectura, Diseño y Urbanismo se ve un aumento importante en la cantidad de votantes para el año 2024. </t>
   </si>
   <si>
@@ -201,6 +147,60 @@
   </si>
   <si>
     <t xml:space="preserve">En el Consejo Directivo se sostiene la proporción: tres bancas para la lista "EDI" y una banca para "El impulso". </t>
+  </si>
+  <si>
+    <t>Lo primero que se evidencia en la Facultad de Ciencias Sociales es que se sostiene la caída de votos totales entre las tres elecciones.</t>
+  </si>
+  <si>
+    <t>Este buen resultado de la lista "Sociales en Movimiento" permite obtener tres bancas en el Consejo Directivo en el 2024, lugar que venía conquistando la alianza UES-Alternativa Académica en el 2019, y la UES en solitario en el 2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 2024, "El Colectivo" sostiene la conducción conformando un frente con "Aquelarre". La Izquierda al Frente mantiene el segundo lugar en las tres elecciones. Se observa un importante crecimiento de "FEI" (reformismo) para el año 2024. </t>
+  </si>
+  <si>
+    <t>En el Consejo Directivo se repite el resultado en las tres elecciones: tres bancas para El Colectivo (+ Aquelarre en 2024) y una banca para La Izquierda al Frente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentro del claustro estudiantil se ve una ligera caída en la cantidad de votos totales para el año 2024 en la Facultad de Derecho, pero un aumento respecto a 2019. </t>
+  </si>
+  <si>
+    <t>En 2024, el "Frente Reformista" sostiene la victoria de la elección anterior con el 59% de los votos válidos. En 2019, obtuvo el primer lugar "Nuevo derecho", fuerza desagregada del actual frente reformista.</t>
+  </si>
+  <si>
+    <t>a lista "Nuevo Espacio", de perfil reformista, sostiene el primer lugar con el 71% de los votos válidos, resultado similar al de las últimas dos elecciones. Ninguna otra agrupación supero los 15 puntos en el mismo período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este resultado le permite a Nuevo Espacio sostener la mayoría absoluta en el Consejo Directivo en las tres elecciones. </t>
+  </si>
+  <si>
+    <t>En la Facultad de Ciencias Exactas se observa un fuerte crecimiento en la cantidad de votos totales, especialmente entre las últimas dos elecciones.</t>
+  </si>
+  <si>
+    <t>"Identidad" (Cámpora) y "FEM" (FPG) se reparten el primer y segundo puesto en las tres elecciones. Ambas listas, junto con "La Izquierda en Exactas", perdieron puntos en la última elección, al mismo tiempo que surge la lista "Espacio Exactas" (reformismo), con el 20% del caudal electoral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Consejo Directivo mantiene su composición con tres bancas para Identidad y una banca para FEM a lo largo de las tres elecciones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La lista "Movimiento Linealmente Independiente" consigue el primer lugar pero con un resultado peor: 35% de los votos comparado con el 61,7% obtenido en 2022. Se destaca el aumento de los votos obtenidos por la lista "El Gradiente" (peronismo) y la aparición "Espacio Estudiantil" (reformismo), que se desprende en esta elección de "MLI". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 2024 se invierte la tendencia marcada por las dos elecciones anteriores: triunfa la lista "Unidad FADU", un frente panperonista, con el 53,5% de los votos frente al 33,7% de la lista "Somos FADU", histórica conducción reformista de la facultad. </t>
+  </si>
+  <si>
+    <t>LAI (Línea de Agronomía Independiente), de perfil conservador, obtuvo casi idénticos puntos entre las 3 elecciones, garantizándole la mayoría en las últimas dos por el fuerte declive de Fana ATP FAUBA, de corte peronista, cuyos puntos se trasladaron a la lista troskista del 2022 "Abriendo Caminos".</t>
+  </si>
+  <si>
+    <t>La composición de bancas del Consejo Directivo en el 2019 fue de tres para "Fana ATP FAUBA" y de una para "LAI", invirtiéndose el reparto en las elecciones de 2022 y 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Ciencias Veterinarias la cantidad total de votantes se mantiene prácticamente estable para el año 2024. </t>
+  </si>
+  <si>
+    <t>En 2024, la lista "evet-UJS" (troskismo) consigue una tercera, pero ajustada, victoria con el 37,8% de los votos frente a los 36,1% de la lista "AFV" (reformismo). "La Tropilla" (peronismo) cede en 2024 el segundo puesto de las primeras dos elecciones a "AFV".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el Consejo Directivo la lista "evet-UJS" sostiene sus tres bancas mientras que la banca restante pasa a manos de la lista "AFV" en 2024, anteriormente ocupada por "La Tropilla". </t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -268,9 +268,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -555,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,184 +576,184 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/textos_analisis.xlsx
+++ b/textos_analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D6C63-CD50-4DB6-BECF-25C8E0DA84E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0D997-4B89-4A85-A378-0FAF3D1B656E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2976" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -125,27 +125,15 @@
     <t xml:space="preserve">En la Facultad de Arquitectura, Diseño y Urbanismo se ve un aumento importante en la cantidad de votantes para el año 2024. </t>
   </si>
   <si>
-    <t xml:space="preserve">En la Facultad de Medicina votaron en 2024 una cantidad similar de estudiantes que en las elecciones inmediatamente anteriores. </t>
-  </si>
-  <si>
     <t xml:space="preserve">La lista "Nuevo Espacio" sostiene el primer lugar con el 61,5% de los votos, muy lejos de la lista "El Torrente" (23,2%). Sin embargo, se ve una caída respecto del año anterior, donde habían obtenido el 74,7% de los votos. </t>
   </si>
   <si>
-    <t xml:space="preserve">En el Consejo Directivo la lista "Nuevo Espacio" pierde la mayoría absoluta y cede una de sus bancas a la lista "El Torrente". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En la Facultad de Odontología la lista "AFO" sostiene una abrumadora mayoría llegando al 99% de los votos válidos. </t>
-  </si>
-  <si>
     <t xml:space="preserve">En el Consejo Directivo la lista "AFO" sostiene la mayoría absoluta en el claustro de estudiantes. </t>
   </si>
   <si>
     <t xml:space="preserve">En la Facultad de Psicología la cantidad total de votantes en el año 2024 es similar a la del año 2019. </t>
   </si>
   <si>
-    <t>La lista "EDI" sostiene el primer lugar con un 51,7% de los votos válidos, seguido por la lista "El impulso" con un 31,5% de votos.</t>
-  </si>
-  <si>
     <t xml:space="preserve">En el Consejo Directivo se sostiene la proporción: tres bancas para la lista "EDI" y una banca para "El impulso". </t>
   </si>
   <si>
@@ -201,6 +189,18 @@
   </si>
   <si>
     <t xml:space="preserve">En el Consejo Directivo la lista "evet-UJS" sostiene sus tres bancas mientras que la banca restante pasa a manos de la lista "AFV" en 2024, anteriormente ocupada por "La Tropilla". </t>
+  </si>
+  <si>
+    <t>En la Facultad de Medicina en 2022 votaron aproximadamente 8500 estudiantes más que en 2019. En 2024 el número se mantuvo estable respecto de la anterior elección.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el Consejo Directivo la lista "Nuevo Espacio" pierde la mayoría absoluta ostentada en las últimas dos elecciones y cede una de sus bancas a la lista "El Torrente". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Odontología la lista "AFO" sostiene una abrumadora mayoría en las tres elecciones llegando al 99% de los votos válidos. </t>
+  </si>
+  <si>
+    <t>La lista "EDI" (reformismo) y "El Impulso" (peronismo) se reparten el primer y segundo lugar respectivamente en las tres elecciones, con cierta fluctuación de puntos entre cada una.</t>
   </si>
 </sst>
 </file>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,13 +581,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -598,10 +598,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -623,10 +623,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -651,13 +651,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -668,7 +668,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>26</v>
@@ -682,7 +682,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
@@ -696,10 +696,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -707,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -721,39 +721,39 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/textos_analisis.xlsx
+++ b/textos_analisis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\personal\sociologia\emergit\uba_electoral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0D997-4B89-4A85-A378-0FAF3D1B656E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59045587-DAC5-414C-91C2-6C78A26B4F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2976" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Texto Consejeros</t>
   </si>
   <si>
-    <t>Al ver porcentaje de votos válidos por lista, se observa un mejor resultado del frente Sociales en Movimiento con su segundo incremento consecutivo.</t>
-  </si>
-  <si>
     <t>Derecho</t>
   </si>
   <si>
@@ -71,12 +68,6 @@
     <t xml:space="preserve">Dentro del claustro estudiantil se ve una ligera caída en la cantidad de votos totales para el año 2024 en la Facultad de Farmacia y Bioquímica. </t>
   </si>
   <si>
-    <t xml:space="preserve">El frente "Estudiantes por FFyB" (alianza entre Sinapsis y Nuevo Espacio) logra pasar al frente en estas elecciones y conquistar la mayor cantidad de votos en las elecciones a Consejo Directivo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El frente "Estudiantes por FFyB" conquista así tres bancas en el Consejo. La lista Antídoto conquista una sola banca para el año 2024-2026 a diferencia de las últimas dos elecciones donde había obtenido la mayoría. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Este resultado les permite sostener la mayoría en el Consejo Directivo. </t>
   </si>
   <si>
@@ -116,91 +107,100 @@
     <t xml:space="preserve">En la Facultad de Ingeniería votaron en 2024 una cantidad similar de estudiantes que en el año 2019. </t>
   </si>
   <si>
-    <t xml:space="preserve">El Consejo Directivo mantiene su composición con las cuatro bancas para la lista "MLI". </t>
-  </si>
-  <si>
     <t xml:space="preserve">El Consejo Directivo invierte su composición: "Unidad FADU" pasa a ocupar 3 bancas y "Somos FADU" ocupa la banca restante. </t>
   </si>
   <si>
     <t xml:space="preserve">En la Facultad de Arquitectura, Diseño y Urbanismo se ve un aumento importante en la cantidad de votantes para el año 2024. </t>
   </si>
   <si>
-    <t xml:space="preserve">La lista "Nuevo Espacio" sostiene el primer lugar con el 61,5% de los votos, muy lejos de la lista "El Torrente" (23,2%). Sin embargo, se ve una caída respecto del año anterior, donde habían obtenido el 74,7% de los votos. </t>
-  </si>
-  <si>
     <t xml:space="preserve">En el Consejo Directivo la lista "AFO" sostiene la mayoría absoluta en el claustro de estudiantes. </t>
   </si>
   <si>
     <t xml:space="preserve">En la Facultad de Psicología la cantidad total de votantes en el año 2024 es similar a la del año 2019. </t>
   </si>
   <si>
-    <t xml:space="preserve">En el Consejo Directivo se sostiene la proporción: tres bancas para la lista "EDI" y una banca para "El impulso". </t>
-  </si>
-  <si>
-    <t>Lo primero que se evidencia en la Facultad de Ciencias Sociales es que se sostiene la caída de votos totales entre las tres elecciones.</t>
-  </si>
-  <si>
-    <t>Este buen resultado de la lista "Sociales en Movimiento" permite obtener tres bancas en el Consejo Directivo en el 2024, lugar que venía conquistando la alianza UES-Alternativa Académica en el 2019, y la UES en solitario en el 2022.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En 2024, "El Colectivo" sostiene la conducción conformando un frente con "Aquelarre". La Izquierda al Frente mantiene el segundo lugar en las tres elecciones. Se observa un importante crecimiento de "FEI" (reformismo) para el año 2024. </t>
-  </si>
-  <si>
-    <t>En el Consejo Directivo se repite el resultado en las tres elecciones: tres bancas para El Colectivo (+ Aquelarre en 2024) y una banca para La Izquierda al Frente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dentro del claustro estudiantil se ve una ligera caída en la cantidad de votos totales para el año 2024 en la Facultad de Derecho, pero un aumento respecto a 2019. </t>
-  </si>
-  <si>
-    <t>En 2024, el "Frente Reformista" sostiene la victoria de la elección anterior con el 59% de los votos válidos. En 2019, obtuvo el primer lugar "Nuevo derecho", fuerza desagregada del actual frente reformista.</t>
-  </si>
-  <si>
-    <t>a lista "Nuevo Espacio", de perfil reformista, sostiene el primer lugar con el 71% de los votos válidos, resultado similar al de las últimas dos elecciones. Ninguna otra agrupación supero los 15 puntos en el mismo período.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este resultado le permite a Nuevo Espacio sostener la mayoría absoluta en el Consejo Directivo en las tres elecciones. </t>
-  </si>
-  <si>
-    <t>En la Facultad de Ciencias Exactas se observa un fuerte crecimiento en la cantidad de votos totales, especialmente entre las últimas dos elecciones.</t>
-  </si>
-  <si>
-    <t>"Identidad" (Cámpora) y "FEM" (FPG) se reparten el primer y segundo puesto en las tres elecciones. Ambas listas, junto con "La Izquierda en Exactas", perdieron puntos en la última elección, al mismo tiempo que surge la lista "Espacio Exactas" (reformismo), con el 20% del caudal electoral.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Consejo Directivo mantiene su composición con tres bancas para Identidad y una banca para FEM a lo largo de las tres elecciones. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La lista "Movimiento Linealmente Independiente" consigue el primer lugar pero con un resultado peor: 35% de los votos comparado con el 61,7% obtenido en 2022. Se destaca el aumento de los votos obtenidos por la lista "El Gradiente" (peronismo) y la aparición "Espacio Estudiantil" (reformismo), que se desprende en esta elección de "MLI". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En 2024 se invierte la tendencia marcada por las dos elecciones anteriores: triunfa la lista "Unidad FADU", un frente panperonista, con el 53,5% de los votos frente al 33,7% de la lista "Somos FADU", histórica conducción reformista de la facultad. </t>
-  </si>
-  <si>
-    <t>LAI (Línea de Agronomía Independiente), de perfil conservador, obtuvo casi idénticos puntos entre las 3 elecciones, garantizándole la mayoría en las últimas dos por el fuerte declive de Fana ATP FAUBA, de corte peronista, cuyos puntos se trasladaron a la lista troskista del 2022 "Abriendo Caminos".</t>
-  </si>
-  <si>
-    <t>La composición de bancas del Consejo Directivo en el 2019 fue de tres para "Fana ATP FAUBA" y de una para "LAI", invirtiéndose el reparto en las elecciones de 2022 y 2024.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En la Facultad de Ciencias Veterinarias la cantidad total de votantes se mantiene prácticamente estable para el año 2024. </t>
-  </si>
-  <si>
-    <t>En 2024, la lista "evet-UJS" (troskismo) consigue una tercera, pero ajustada, victoria con el 37,8% de los votos frente a los 36,1% de la lista "AFV" (reformismo). "La Tropilla" (peronismo) cede en 2024 el segundo puesto de las primeras dos elecciones a "AFV".</t>
-  </si>
-  <si>
     <t xml:space="preserve">En el Consejo Directivo la lista "evet-UJS" sostiene sus tres bancas mientras que la banca restante pasa a manos de la lista "AFV" en 2024, anteriormente ocupada por "La Tropilla". </t>
   </si>
   <si>
     <t>En la Facultad de Medicina en 2022 votaron aproximadamente 8500 estudiantes más que en 2019. En 2024 el número se mantuvo estable respecto de la anterior elección.</t>
   </si>
   <si>
-    <t xml:space="preserve">En el Consejo Directivo la lista "Nuevo Espacio" pierde la mayoría absoluta ostentada en las últimas dos elecciones y cede una de sus bancas a la lista "El Torrente". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En la Facultad de Odontología la lista "AFO" sostiene una abrumadora mayoría en las tres elecciones llegando al 99% de los votos válidos. </t>
-  </si>
-  <si>
-    <t>La lista "EDI" (reformismo) y "El Impulso" (peronismo) se reparten el primer y segundo lugar respectivamente en las tres elecciones, con cierta fluctuación de puntos entre cada una.</t>
+    <t>Lo primero que se evidencia en la Facultad de Ciencias Sociales es que se sostiene la caída de votos totales en las tres últimas elecciones.</t>
+  </si>
+  <si>
+    <t>Un crecimiento sostenido de Sociales en Movimiento le permitió conseguir la primera victoria en 5 elecciones, frente a la hegemonía de la UES, quien compartió un intermitente frente con Alternativa Académica.</t>
+  </si>
+  <si>
+    <t>Este buen resultado de la lista Sociales en Movimiento le permite obtener tres bancas en el Consejo Directivo en el 2024, lugar que venía conquistando la UES históricamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 2024, "El Colectivo" sostiene la conducción conformando un frente con "Aquelarre". La Izquierda al Frente mantiene el segundo lugar en las tres últimas elecciones. Se observa un importante crecimiento de "FEI" (reformismo) para el año 2024. </t>
+  </si>
+  <si>
+    <t>En el Consejo Directivo se repite el resultado en las últimas tres elecciones: tres bancas para El Colectivo (+ Aquelarre en 2024) y una banca para La Izquierda al Frente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El frente "Estudiantes por FFyB" (alianza entre Sinapsis y Nuevo Espacio) logra pasar al frente en estas elecciones y conquistar la mayor cantidad de votos para Consejo Directivo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El frente "Estudiantes por FFyB" conquista así tres bancas en el Consejo. La lista Antídoto conquista una sola banca para el año 2024-2026 a diferencia de las últimas cuatro elecciones donde había obtenido la mayoría. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Derecho, se observa un promedio sostenido de votos del claustro estudiantil en la últimas 5 elecciones, con un pico en 2022 y un piso en 2029. </t>
+  </si>
+  <si>
+    <t>En 2024, el "Frente Reformista" sostiene la victoria de la elección anterior con el 59% de los votos válidos. En las tres elecciones previas, se intercambiaron el primer lugar "Nuevo derecho" y "Franja Morada", ambas agrupaciones desagregadas del actual frente reformista.</t>
+  </si>
+  <si>
+    <t>La lista "Nuevo Espacio", de perfil reformista, sostiene el primer lugar las últimas cinco elecciones, con un piso de 56,3% y un techo de 74,21% de los votos válidos. Salvo MxE en 2015, ninguna otra agrupación superó los 15 puntos en el mismo período.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este resultado le permite a Nuevo Espacio sostener la mayoría absoluta en el Consejo Directivo en la totalidad del período analizado. </t>
+  </si>
+  <si>
+    <t>En la Facultad de Ciencias Exactas, se observa un fuerte crecimiento en la cantidad de votos totales, especialmente entre las últimas dos elecciones. Esto se debe a la incorporación de la carrera de Ciencia de Datos en 2021.</t>
+  </si>
+  <si>
+    <t>"Identidad" (Cámpora) sostiene el primer lugar desde el 2019, cuando logró superar a la mayoría de las dos elecciones previas, "FEM" (FPG). Ambas listas, junto con "La Izquierda en Exactas", perdieron puntos en la última elección, al mismo tiempo que surge la lista "Espacio Exactas" (reformismo), con el 20% del caudal electoral.</t>
+  </si>
+  <si>
+    <t>El Consejo Directivo mantiene su composición con tres bancas para Identidad o FEM en las últimas cuatro elecciones, siendo en 2015 la última vez que ingresó La izquierda en Exactas, en esa ocasión con un asiento.</t>
+  </si>
+  <si>
+    <t>La lista "Movimiento Linealmente Independiente" es la conducción indiscutida de las últimas cinco elecciones. Sin embargo, después de un crecimiento sostenido hasta 2022 (61,7%), en la última elección pierde más de 36 puntos, consecuencia de la ruptura con "Espacio Estudiantil" (reformismo) y un aumento de los votos obtenidos por la lista "El Gradiente" (peronismo).</t>
+  </si>
+  <si>
+    <t>Salvo por una minoría obtenida por "La Mella" en 2015, "MLI" sostiene las cuatro bancas del Consejo Directivo en todo el período analizado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 2024 se invierte la tendencia marcada por las cuatro elecciones anteriores: triunfa la lista "Unidad FADU", un frente panperonista, con el 53,5% de los votos frente al 33,7% de la lista "Somos FADU", histórica conducción reformista de la facultad. </t>
+  </si>
+  <si>
+    <t>LAI (Línea de Agronomía Independiente), de perfil conservador, sostuvo el primer lugar en cuatro de las cinco elecciones, con un hiato en 2019 donde ganó Fana ATP FAUBA, de corte peronista.</t>
+  </si>
+  <si>
+    <t>La composición de bancas del Consejo Directivo en el 2019 fue de tres para "Fana ATP FAUBA" y de una para "LAI", invirtiéndose el reparto en las dos elecciones previas y en las dos posteriores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Ciencias Veterinarias la cantidad total de votantes se mantiene prácticamente estable entre las últimas dos elecciones. </t>
+  </si>
+  <si>
+    <t>La lista "eVet-UJS" (troskismo) es la primera fuerza en las últimas cinco elecciones. Sin embargo, sostienen una pérdida ininterrumpida de votos, por la cual la lista "AFV" (reformismo) consiguió un segundo puesto en 2024, a un 1,7% de pasar al frente. "La Tropilla" (peronismo) pierde en esta elección la minoría que había sostenido en las cuatro elecciones previas.</t>
+  </si>
+  <si>
+    <t>Salvo en 2017, cuando "Nuevo Espacio" (43,09%) quedó menos de 10 puntos por encima del segundo, en todas las elecciones sostiene el primer lugar superando los 60 puntos cómodamente, con un pico de 74,69% en 2022.</t>
+  </si>
+  <si>
+    <t>En el Consejo Directivo, la lista "Nuevo Espacio" sostuvo cuatro bancas por la mayoría absoluta en 2019 y 2022, y tres bancas en 2015, 2017 y la última elección de 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Facultad de Odontología, la lista "AFO" sostiene una abrumadora mayoría en las cinco elecciones llegando al 99% de los votos válidos en 2024. </t>
+  </si>
+  <si>
+    <t>La lista "EDI" (reformismo) y "El Impulso" (peronismo) se reparten el primer y segundo lugar respectivamente en las últimas cuatro elecciones, con cierta fluctuación de puntos entre cada una.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el Consejo Directivo, a excepción de 2015, se sostiene la proporción: tres bancas para la lista "EDI" y una banca para "El impulso". </t>
   </si>
 </sst>
 </file>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,124 +576,124 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>46</v>
@@ -702,9 +702,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>48</v>
@@ -713,47 +713,47 @@
         <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
